--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1505932.790051751</v>
+        <v>1610112.424502823</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10437581.96848356</v>
+        <v>10437581.96848357</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>233.1639621694953</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>105.3097074641598</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>136.1631093707186</v>
+        <v>18.53989561617305</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.76773080618834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>239.9164930890872</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.80157054286501</v>
+        <v>31.93582623763021</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>280.7066282079235</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>5.648630020762275</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.08312804901203</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>202.8259983001618</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>190.58191301778</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>91.89996056624886</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>224.7837165195613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>102.9630220374127</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>134.5665975534142</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>203.1332405899842</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>53.08838020946216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.102991989293</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C2" t="n">
-        <v>1914.140475048881</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D2" t="n">
-        <v>1555.874776442131</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1170.086523843887</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>759.1006190542792</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>344.0281688992756</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4331,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989293</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989293</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4522,16 +4524,16 @@
         <v>350.2677975281828</v>
       </c>
       <c r="V4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="W4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>428.615504601943</v>
+        <v>98.77052677322402</v>
       </c>
       <c r="C7" t="n">
-        <v>259.6793216740361</v>
+        <v>98.77052677322402</v>
       </c>
       <c r="D7" t="n">
-        <v>259.6793216740361</v>
+        <v>98.77052677322402</v>
       </c>
       <c r="E7" t="n">
-        <v>111.766228091643</v>
+        <v>98.77052677322402</v>
       </c>
       <c r="F7" t="n">
-        <v>111.766228091643</v>
+        <v>98.77052677322402</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>501.2115707469939</v>
       </c>
       <c r="Y7" t="n">
-        <v>610.2639694321828</v>
+        <v>280.4189916034637</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.900772669911</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1561.900772669911</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1176.112520071667</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>765.1266152820592</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>350.0541651270557</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3319.900134719511</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3319.900134719511</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3066.369657993348</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,22 +4871,22 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4896,19 +4898,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>523.9612719922607</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>373.8446325799249</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>373.8446325799249</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>226.9546850820145</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>226.9546850820145</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>80.73749829987233</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>212.7293032143256</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828446</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,7 +5600,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
         <v>949.9304447718132</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>2951.542595286851</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>2782.606412358944</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>2632.489772946609</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>2484.576679364216</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>4415.150075057288</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>4126.074848401486</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>3871.390360195599</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>3581.973190158638</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>3353.983639260621</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>3133.191060117091</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,58 +5977,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1750.40682139984</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1495.722333193953</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.305163156993</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>2680.685310603265</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>3278.063798229817</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2345.361232772917</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.759767795858</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.684541140056</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.000052934169</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1292.582882897208</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.593331999191</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556607</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,34 +6475,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>2808.971891347485</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>3406.350378974037</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770273</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491205</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>634.3345878491205</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>486.4214942667273</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>339.531546768817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648815</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750797</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072671</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>2815.530845237134</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>3990.063098351769</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>3735.378610145882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>3445.961440108921</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>3217.971889210904</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>2997.179310067374</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7263,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2804.65264778894</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C40" t="n">
-        <v>2635.716464861033</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>2485.599825448698</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4487.861592536436</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>4268.260127559377</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>3979.184900903575</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V40" t="n">
-        <v>3724.500412697688</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W40" t="n">
-        <v>3435.083242660728</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X40" t="n">
-        <v>3207.09369176271</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y40" t="n">
-        <v>2986.30111261918</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
         <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7736,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,13 +23940,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610394</v>
       </c>
       <c r="U19" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194117</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>62.5611162548561</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>46.45968844823039</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.05123379925999</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>902499.9148193023</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
@@ -26329,7 +26331,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
@@ -26344,10 +26346,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26436,28 +26438,28 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26522,31 +26524,31 @@
         <v>-996598.2799812541</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463385</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82673.65816036142</v>
+        <v>82673.65816036216</v>
       </c>
       <c r="F6" t="n">
-        <v>408086.1199677176</v>
+        <v>408086.1199677169</v>
       </c>
       <c r="G6" t="n">
-        <v>408086.1199677169</v>
+        <v>408086.1199677168</v>
       </c>
       <c r="H6" t="n">
-        <v>408086.1199677173</v>
+        <v>408086.1199677172</v>
       </c>
       <c r="I6" t="n">
-        <v>408086.1199677171</v>
+        <v>408086.119967717</v>
       </c>
       <c r="J6" t="n">
-        <v>190554.9175704397</v>
+        <v>190554.9175704398</v>
       </c>
       <c r="K6" t="n">
-        <v>408086.1199677171</v>
+        <v>408086.119967717</v>
       </c>
       <c r="L6" t="n">
         <v>408086.1199677172</v>
@@ -26555,13 +26557,13 @@
         <v>323031.0920322053</v>
       </c>
       <c r="N6" t="n">
-        <v>408086.1199677173</v>
+        <v>408086.119967717</v>
       </c>
       <c r="O6" t="n">
         <v>408086.1199677172</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677172</v>
+        <v>408086.1199677173</v>
       </c>
     </row>
   </sheetData>
@@ -26790,37 +26792,37 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61.44380221782515</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>280.9282311918938</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.9745339531094</v>
+        <v>233.5977477076549</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>339.9661108572922</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>146.3214455669664</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>121.2242377161632</v>
+        <v>134.089982021398</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13.90113617939693</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.5391317674136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>82.26929236082606</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>49.31164502366624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510266</v>
+        <v>171.7382405950826</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,10 +32320,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655499</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6116741576916</v>
+        <v>570.6116741576902</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576916</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34454,10 +34456,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366964</v>
+        <v>37.76383318075232</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>302.4748895856757</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0572943778175</v>
+        <v>432.0572943778161</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778175</v>
+        <v>405.044904796216</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38102,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1610112.424502823</v>
+        <v>1606099.81448883</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283169</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10437581.96848357</v>
+        <v>10437581.96848356</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>261.733760003594</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.3097074641598</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.53989561617305</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>206.8973285420759</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.9164930890872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144186</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>31.93582623763021</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>163.8651933646353</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.648630020762275</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.08312804901203</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.905700988132</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242942</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>190.58191301778</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322726335</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922619</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428658</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>203.1332405899842</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>100.0416311957212</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.904841306683</v>
+        <v>2240.582457090719</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y2" t="n">
-        <v>1944.904841306683</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>350.2677975281828</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>331.5406302391191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>331.5406302391191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>331.5406302391191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.5406302391191</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.77052677322402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>98.77052677322402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>98.77052677322402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>98.77052677322402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>98.77052677322402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450112</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>501.2115707469939</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.4189916034637</v>
+        <v>182.687705739677</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>243.0645598847984</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>232.0325137701989</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3319.900134719511</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3319.900134719511</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.369657993348</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.306770649777</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.8974549201675</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>523.9612719922607</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>373.8446325799249</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>373.8446325799249</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>226.9546850820145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>226.9546850820145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>80.73749829987233</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201675</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468477</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972543</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.67509321183</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400839</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121771</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121771</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121771</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121771</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.721318527057</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570829</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279815</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853374</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580273</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832676</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548758</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510521</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854719</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648832</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611871</v>
       </c>
       <c r="X13" t="n">
-        <v>951.777212765616</v>
+        <v>916.2946447138538</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703237</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257243</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133885</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098309954</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333085</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5518,10 +5518,10 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2951.542595286851</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C19" t="n">
-        <v>2782.606412358944</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D19" t="n">
-        <v>2632.489772946609</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="E19" t="n">
-        <v>2484.576679364216</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="F19" t="n">
-        <v>2337.686731866305</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="G19" t="n">
-        <v>2337.686731866305</v>
+        <v>177.7213185270493</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>4415.150075057288</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>4126.074848401486</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>3871.390360195599</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>3581.973190158638</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>3353.983639260621</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y19" t="n">
-        <v>3133.191060117091</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>2680.685310603265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3278.063798229817</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3406.350378974037</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6615,10 +6615,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,10 +6706,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.530845237134</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3990.063098351769</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3735.378610145882</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3445.961440108921</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3217.971889210904</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2997.179310067374</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7496,16 +7496,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2345.91093085731</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2126.309465880251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392192966</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>111.1976478713645</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193728</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>83.05123379925999</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985044</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985042</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
@@ -26352,10 +26352,10 @@
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073562</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26453,13 +26453,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812541</v>
+        <v>-996598.2799812543</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463385</v>
       </c>
       <c r="E6" t="n">
-        <v>82673.65816036216</v>
+        <v>82326.27890600445</v>
       </c>
       <c r="F6" t="n">
-        <v>408086.1199677169</v>
+        <v>407738.7407133607</v>
       </c>
       <c r="G6" t="n">
-        <v>408086.1199677168</v>
+        <v>407738.7407133604</v>
       </c>
       <c r="H6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133603</v>
       </c>
       <c r="I6" t="n">
-        <v>408086.119967717</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="J6" t="n">
-        <v>190554.9175704398</v>
+        <v>190207.5383160828</v>
       </c>
       <c r="K6" t="n">
-        <v>408086.119967717</v>
+        <v>407738.7407133602</v>
       </c>
       <c r="L6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="M6" t="n">
-        <v>323031.0920322053</v>
+        <v>322683.712777848</v>
       </c>
       <c r="N6" t="n">
-        <v>408086.119967717</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="O6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.74071336</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677173</v>
+        <v>407738.7407133605</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>103.5391317674136</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>280.9282311918938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>233.5977477076549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>11.68732481001891</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.3214455669664</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>64.81814676751867</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>134.089982021398</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>130.7425710226851</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.5391317674136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>82.26929236082606</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.665388339069768e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.112330968074578e-11</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.656846076092861e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,34 +32548,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655499</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33201,13 +33201,13 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6116741576902</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899187</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>213.2742757378059</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36050,10 +36050,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010494</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.4748895856757</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0572943778161</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396414</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>405.044904796216</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606099.81448883</v>
+        <v>1607860.344791615</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283169</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>261.733760003594</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952942</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.8973285420759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.14763241892861</v>
+        <v>92.47445699814216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0138334144186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>163.8651933646353</v>
+        <v>245.3317608950663</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467719</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.905700988132</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.0656089242942</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>56.04917322726335</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922619</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428658</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716562</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105458</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788182562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.295034370327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2240.582457090719</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4330,22 +4330,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4366,16 +4366,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y2" t="n">
-        <v>2240.582457090719</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.2513404403937</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124868</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4488,52 +4488,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>711.8998052706335</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832071</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.687705739677</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1891.353293732294</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1522.390776791882</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>1164.125078185132</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744059</v>
+        <v>778.3368255868877</v>
       </c>
       <c r="F8" t="n">
-        <v>243.0645598847984</v>
+        <v>367.3509207972801</v>
       </c>
       <c r="G8" t="n">
-        <v>232.0325137701989</v>
+        <v>356.3188746826807</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398598</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468477</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143766</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400839</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121771</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121771</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121771</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121771</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>177.721318527057</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570829</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279815</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853374</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832676</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.06254548758</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510521</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854719</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648832</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611871</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138538</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703237</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
@@ -5284,10 +5284,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179095</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257243</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133885</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098309954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333085</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5518,49 +5518,49 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400762</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270493</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,43 +5682,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832668</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487572</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510513</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854711</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648824</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611863</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138461</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6141,10 +6141,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>187.8360202106533</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6718,7 +6718,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>580.899304487672</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746451</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168432</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602307</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.74706939642</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614419</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179117</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168612</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7548,25 +7548,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,7 +7593,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
         <v>2254.869721166297</v>
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392192966</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>111.1976478713645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392193728</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.44497470121426</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.11969353038296</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219418</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902499.9148193027</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193026</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985044</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073562</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26453,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812543</v>
+        <v>-996598.279981254</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463383</v>
       </c>
       <c r="D6" t="n">
         <v>332146.4657463385</v>
       </c>
       <c r="E6" t="n">
-        <v>82326.27890600445</v>
+        <v>82638.92023492564</v>
       </c>
       <c r="F6" t="n">
-        <v>407738.7407133607</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="G6" t="n">
-        <v>407738.7407133604</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="H6" t="n">
-        <v>407738.7407133603</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="I6" t="n">
-        <v>407738.7407133601</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="J6" t="n">
-        <v>190207.5383160828</v>
+        <v>190520.1796450039</v>
       </c>
       <c r="K6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="L6" t="n">
-        <v>407738.7407133601</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="M6" t="n">
-        <v>322683.712777848</v>
+        <v>322996.3541067696</v>
       </c>
       <c r="N6" t="n">
-        <v>407738.7407133601</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="O6" t="n">
-        <v>407738.74071336</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="P6" t="n">
-        <v>407738.7407133605</v>
+        <v>408051.3820422813</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>103.5391317674136</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607594</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.68732481001891</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>345.5834682595404</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.81814676751867</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>130.7425710226851</v>
+        <v>49.2760034922542</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351654</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.665388339069768e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.112330968074578e-11</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.656846076092861e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.97563488453549e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.95065951213</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899187</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36050,10 +36050,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010494</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37244,7 +37244,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306628</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396414</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
